--- a/outputs-r202/f__Acutalibacteraceae.xlsx
+++ b/outputs-r202/f__Acutalibacteraceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CB60"/>
+  <dimension ref="A1:CC60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -835,6 +835,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1081,6 +1086,11 @@
           <t>g__Ruminococcus_E</t>
         </is>
       </c>
+      <c r="CC2" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_E(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1327,6 +1337,11 @@
           <t>g__RUG592</t>
         </is>
       </c>
+      <c r="CC3" t="inlineStr">
+        <is>
+          <t>g__RUG592</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1573,6 +1588,11 @@
           <t>g__CAG-180</t>
         </is>
       </c>
+      <c r="CC4" t="inlineStr">
+        <is>
+          <t>g__CAG-180</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1819,6 +1839,11 @@
           <t>g__UBA1213</t>
         </is>
       </c>
+      <c r="CC5" t="inlineStr">
+        <is>
+          <t>g__UBA1213</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -2065,6 +2090,11 @@
           <t>g__Ruminococcus_E</t>
         </is>
       </c>
+      <c r="CC6" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_E</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -2311,6 +2341,11 @@
           <t>g__Ruminococcus_E</t>
         </is>
       </c>
+      <c r="CC7" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_E</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -2557,6 +2592,11 @@
           <t>g__RUG592</t>
         </is>
       </c>
+      <c r="CC8" t="inlineStr">
+        <is>
+          <t>g__RUG592</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -2803,6 +2843,11 @@
           <t>g__UBA1213</t>
         </is>
       </c>
+      <c r="CC9" t="inlineStr">
+        <is>
+          <t>g__UBA1213</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -3049,6 +3094,11 @@
           <t>g__Ruminococcus_E</t>
         </is>
       </c>
+      <c r="CC10" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_E</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -3295,6 +3345,11 @@
           <t>g__Ruminococcus_E</t>
         </is>
       </c>
+      <c r="CC11" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_E</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -3541,6 +3596,11 @@
           <t>g__CAG-180</t>
         </is>
       </c>
+      <c r="CC12" t="inlineStr">
+        <is>
+          <t>g__CAG-180</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -3787,6 +3847,11 @@
           <t>g__CAG-180</t>
         </is>
       </c>
+      <c r="CC13" t="inlineStr">
+        <is>
+          <t>g__CAG-180(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -4033,6 +4098,11 @@
           <t>g__CAG-964</t>
         </is>
       </c>
+      <c r="CC14" t="inlineStr">
+        <is>
+          <t>g__CAG-964</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -4279,6 +4349,11 @@
           <t>g__UBA1213</t>
         </is>
       </c>
+      <c r="CC15" t="inlineStr">
+        <is>
+          <t>g__UBA1213</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -4525,6 +4600,11 @@
           <t>g__RUG762</t>
         </is>
       </c>
+      <c r="CC16" t="inlineStr">
+        <is>
+          <t>g__RUG762</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -4771,6 +4851,11 @@
           <t>g__RUG762</t>
         </is>
       </c>
+      <c r="CC17" t="inlineStr">
+        <is>
+          <t>g__RUG762</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -5017,6 +5102,11 @@
           <t>g__CAG-964</t>
         </is>
       </c>
+      <c r="CC18" t="inlineStr">
+        <is>
+          <t>g__CAG-964</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -5263,6 +5353,11 @@
           <t>g__CAG-180</t>
         </is>
       </c>
+      <c r="CC19" t="inlineStr">
+        <is>
+          <t>g__CAG-180(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -5509,6 +5604,11 @@
           <t>g__CAG-180</t>
         </is>
       </c>
+      <c r="CC20" t="inlineStr">
+        <is>
+          <t>g__CAG-180(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -5755,6 +5855,11 @@
           <t>g__Ruminococcus_E</t>
         </is>
       </c>
+      <c r="CC21" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_E</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -6001,6 +6106,11 @@
           <t>g__UBA1213</t>
         </is>
       </c>
+      <c r="CC22" t="inlineStr">
+        <is>
+          <t>g__UBA1213</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -6247,6 +6357,11 @@
           <t>g__UBA1213</t>
         </is>
       </c>
+      <c r="CC23" t="inlineStr">
+        <is>
+          <t>g__UBA1213</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -6493,6 +6608,11 @@
           <t>g__CAG-180</t>
         </is>
       </c>
+      <c r="CC24" t="inlineStr">
+        <is>
+          <t>g__CAG-180(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -6739,6 +6859,11 @@
           <t>g__CAG-180</t>
         </is>
       </c>
+      <c r="CC25" t="inlineStr">
+        <is>
+          <t>g__CAG-180(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -6985,6 +7110,11 @@
           <t>g__CAG-180</t>
         </is>
       </c>
+      <c r="CC26" t="inlineStr">
+        <is>
+          <t>g__CAG-180(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -7231,6 +7361,11 @@
           <t>g__Ruminococcus_E</t>
         </is>
       </c>
+      <c r="CC27" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_E</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -7477,6 +7612,11 @@
           <t>g__UBA1213</t>
         </is>
       </c>
+      <c r="CC28" t="inlineStr">
+        <is>
+          <t>g__UBA1213</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -7723,6 +7863,11 @@
           <t>g__Ruminococcus_E</t>
         </is>
       </c>
+      <c r="CC29" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_E(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -7969,6 +8114,11 @@
           <t>g__UBA1213</t>
         </is>
       </c>
+      <c r="CC30" t="inlineStr">
+        <is>
+          <t>g__UBA1213</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -8215,6 +8365,11 @@
           <t>g__CAG-180</t>
         </is>
       </c>
+      <c r="CC31" t="inlineStr">
+        <is>
+          <t>g__CAG-180(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -8461,6 +8616,11 @@
           <t>g__CAG-180</t>
         </is>
       </c>
+      <c r="CC32" t="inlineStr">
+        <is>
+          <t>g__CAG-180(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -8707,6 +8867,11 @@
           <t>g__Ruminococcus_E</t>
         </is>
       </c>
+      <c r="CC33" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_E(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -8953,6 +9118,11 @@
           <t>g__CAG-180</t>
         </is>
       </c>
+      <c r="CC34" t="inlineStr">
+        <is>
+          <t>g__CAG-180(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -9199,6 +9369,11 @@
           <t>g__CAG-180</t>
         </is>
       </c>
+      <c r="CC35" t="inlineStr">
+        <is>
+          <t>g__CAG-180(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -9445,6 +9620,11 @@
           <t>g__Ruminococcus_E</t>
         </is>
       </c>
+      <c r="CC36" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_E</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -9691,6 +9871,11 @@
           <t>g__CAG-180</t>
         </is>
       </c>
+      <c r="CC37" t="inlineStr">
+        <is>
+          <t>g__CAG-180(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -9937,6 +10122,11 @@
           <t>g__UBA1213</t>
         </is>
       </c>
+      <c r="CC38" t="inlineStr">
+        <is>
+          <t>g__UBA1213</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -10183,6 +10373,11 @@
           <t>g__UBA1227</t>
         </is>
       </c>
+      <c r="CC39" t="inlineStr">
+        <is>
+          <t>g__UBA1227(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -10429,6 +10624,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="CC40" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -10675,6 +10875,11 @@
           <t>g__CAG-180</t>
         </is>
       </c>
+      <c r="CC41" t="inlineStr">
+        <is>
+          <t>g__CAG-180(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -10921,6 +11126,11 @@
           <t>g__CAG-180</t>
         </is>
       </c>
+      <c r="CC42" t="inlineStr">
+        <is>
+          <t>g__CAG-180(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -11167,6 +11377,11 @@
           <t>g__UBA1213</t>
         </is>
       </c>
+      <c r="CC43" t="inlineStr">
+        <is>
+          <t>g__UBA1213</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -11413,6 +11628,11 @@
           <t>g__Ruminococcus_E</t>
         </is>
       </c>
+      <c r="CC44" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_E</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -11659,6 +11879,11 @@
           <t>g__RUG592</t>
         </is>
       </c>
+      <c r="CC45" t="inlineStr">
+        <is>
+          <t>g__RUG592</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -11905,6 +12130,11 @@
           <t>g__CAG-180</t>
         </is>
       </c>
+      <c r="CC46" t="inlineStr">
+        <is>
+          <t>g__CAG-180(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -12151,6 +12381,11 @@
           <t>g__CAG-180</t>
         </is>
       </c>
+      <c r="CC47" t="inlineStr">
+        <is>
+          <t>g__CAG-180(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -12397,6 +12632,11 @@
           <t>g__UBA1213</t>
         </is>
       </c>
+      <c r="CC48" t="inlineStr">
+        <is>
+          <t>g__UBA1213</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -12643,6 +12883,11 @@
           <t>g__CAG-964</t>
         </is>
       </c>
+      <c r="CC49" t="inlineStr">
+        <is>
+          <t>g__CAG-964</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -12889,6 +13134,11 @@
           <t>g__Ruminococcus_E</t>
         </is>
       </c>
+      <c r="CC50" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_E(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -13135,6 +13385,11 @@
           <t>g__RUG762</t>
         </is>
       </c>
+      <c r="CC51" t="inlineStr">
+        <is>
+          <t>g__RUG762</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -13381,6 +13636,11 @@
           <t>g__RUG592</t>
         </is>
       </c>
+      <c r="CC52" t="inlineStr">
+        <is>
+          <t>g__RUG592(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -13627,6 +13887,11 @@
           <t>g__UBA1213</t>
         </is>
       </c>
+      <c r="CC53" t="inlineStr">
+        <is>
+          <t>g__UBA1213</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -13873,6 +14138,11 @@
           <t>g__RZYX01</t>
         </is>
       </c>
+      <c r="CC54" t="inlineStr">
+        <is>
+          <t>g__RZYX01(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -14119,6 +14389,11 @@
           <t>g__Hydrogeniiclostridium</t>
         </is>
       </c>
+      <c r="CC55" t="inlineStr">
+        <is>
+          <t>g__Hydrogeniiclostridium(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -14365,6 +14640,11 @@
           <t>g__UBA1213</t>
         </is>
       </c>
+      <c r="CC56" t="inlineStr">
+        <is>
+          <t>g__UBA1213</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -14611,6 +14891,11 @@
           <t>g__CAG-964</t>
         </is>
       </c>
+      <c r="CC57" t="inlineStr">
+        <is>
+          <t>g__CAG-964</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -14857,6 +15142,11 @@
           <t>g__CAG-180</t>
         </is>
       </c>
+      <c r="CC58" t="inlineStr">
+        <is>
+          <t>g__CAG-180(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -15103,6 +15393,11 @@
           <t>g__Eubacterium_R</t>
         </is>
       </c>
+      <c r="CC59" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_R(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -15347,6 +15642,11 @@
       <c r="CB60" t="inlineStr">
         <is>
           <t>g__RZYX01</t>
+        </is>
+      </c>
+      <c r="CC60" t="inlineStr">
+        <is>
+          <t>g__RZYX01(reject)</t>
         </is>
       </c>
     </row>
